--- a/products.xlsx
+++ b/products.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -144,14 +141,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -433,231 +424,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2.6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2.8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.6</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.6</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>8.4</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>4.5</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>3.2</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
         <v>4</v>
       </c>
     </row>
